--- a/Phân tích/Yêu cầu nghiệp vụ.xlsx
+++ b/Phân tích/Yêu cầu nghiệp vụ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/634d733daa62a581/Hy/CNPM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\auhai\Documents\GitHub\CNPM\Phân tích\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{001616FC-E2BF-4C40-9BF0-702E758E373D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D633FF9-4713-4AC7-BC1F-E895F505E694}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4275" yWindow="9630" windowWidth="21600" windowHeight="11385" xr2:uid="{CA4F4A45-B080-403D-880F-8A1956738ABC}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{CA4F4A45-B080-403D-880F-8A1956738ABC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="109">
   <si>
     <t>STT</t>
   </si>
@@ -45,30 +45,6 @@
     <t>- Tính lương</t>
   </si>
   <si>
-    <t>- Nhân viên</t>
-  </si>
-  <si>
-    <t>- Đơn đặt hàng</t>
-  </si>
-  <si>
-    <t>- Khách hàng</t>
-  </si>
-  <si>
-    <t>- Kho</t>
-  </si>
-  <si>
-    <t>- Hóa đơn</t>
-  </si>
-  <si>
-    <t>- Doanh thu</t>
-  </si>
-  <si>
-    <t>- Sản phẩm</t>
-  </si>
-  <si>
-    <t>- Đơn hàng</t>
-  </si>
-  <si>
     <t>- Thêm hàng hóa</t>
   </si>
   <si>
@@ -337,6 +313,45 @@
   </si>
   <si>
     <t>QĐ35</t>
+  </si>
+  <si>
+    <t>- Danh mục nhân viên</t>
+  </si>
+  <si>
+    <t>-Danh mục  đơn đặt hàng</t>
+  </si>
+  <si>
+    <t>- Danh mục  khách hàng</t>
+  </si>
+  <si>
+    <t>- Danh mục  kho</t>
+  </si>
+  <si>
+    <t>- Danh mục  hóa đơn</t>
+  </si>
+  <si>
+    <t>- Báo cáo doanh thu</t>
+  </si>
+  <si>
+    <t>- Báo cáo khách hàng</t>
+  </si>
+  <si>
+    <t>- Báo cáo sản phẩm</t>
+  </si>
+  <si>
+    <t>- Tìm kiếm sản phẩm</t>
+  </si>
+  <si>
+    <t>- Tìm kiếm khách hàng</t>
+  </si>
+  <si>
+    <t>- Tìm kiếm đơn hàng</t>
+  </si>
+  <si>
+    <t>- Tìm kiếm nhân viên</t>
+  </si>
+  <si>
+    <t>- Tìm kiếm hóa đơn</t>
   </si>
 </sst>
 </file>
@@ -387,16 +402,16 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -714,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF8C8E8B-6B0E-4DFD-82F0-66B3E2D3D432}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,515 +742,515 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="D7" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D8" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D10" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>12</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>13</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>14</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>15</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>16</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>17</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>18</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>19</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>20</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="B37" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>22</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>23</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>24</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>25</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>26</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>27</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="3" t="s">
+      <c r="C37" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D37" s="1" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>28</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>29</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>30</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <v>31</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <v>32</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <v>33</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <v>34</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <v>35</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/Phân tích/Yêu cầu nghiệp vụ.xlsx
+++ b/Phân tích/Yêu cầu nghiệp vụ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\auhai\Documents\GitHub\CNPM\Phân tích\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D633FF9-4713-4AC7-BC1F-E895F505E694}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D136F8E2-051E-4DBC-AD7A-8FEA4D550B8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{CA4F4A45-B080-403D-880F-8A1956738ABC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CA4F4A45-B080-403D-880F-8A1956738ABC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="106">
   <si>
     <t>STT</t>
   </si>
@@ -54,9 +54,6 @@
     <t>- Cập nhật chi tiết hàng hóa</t>
   </si>
   <si>
-    <t>- Xóa hàng hóa</t>
-  </si>
-  <si>
     <t>- Tạo đơn hàng</t>
   </si>
   <si>
@@ -207,9 +204,6 @@
     <t>BM34</t>
   </si>
   <si>
-    <t>BM35</t>
-  </si>
-  <si>
     <t>QĐ1</t>
   </si>
   <si>
@@ -310,9 +304,6 @@
   </si>
   <si>
     <t>QĐ34</t>
-  </si>
-  <si>
-    <t>QĐ35</t>
   </si>
   <si>
     <t>- Danh mục nhân viên</t>
@@ -729,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF8C8E8B-6B0E-4DFD-82F0-66B3E2D3D432}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,7 +734,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -754,13 +745,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -771,10 +762,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -785,10 +776,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -799,10 +790,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -813,10 +804,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -827,10 +818,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -838,13 +829,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -852,13 +843,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -866,13 +857,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -880,13 +871,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -894,13 +885,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -908,13 +899,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -922,13 +913,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -936,13 +927,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -950,13 +941,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -964,13 +955,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -978,13 +969,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -992,13 +983,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1006,13 +997,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1020,13 +1011,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1037,10 +1028,10 @@
         <v>6</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1051,10 +1042,10 @@
         <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1065,10 +1056,10 @@
         <v>8</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1079,10 +1070,10 @@
         <v>9</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1093,10 +1084,10 @@
         <v>10</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1107,10 +1098,10 @@
         <v>11</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1121,10 +1112,10 @@
         <v>12</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1135,10 +1126,10 @@
         <v>13</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1149,10 +1140,10 @@
         <v>14</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1163,10 +1154,10 @@
         <v>15</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1177,10 +1168,10 @@
         <v>16</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1191,10 +1182,10 @@
         <v>17</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1205,10 +1196,10 @@
         <v>18</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1219,10 +1210,10 @@
         <v>19</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1233,25 +1224,14 @@
         <v>20</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>95</v>
-      </c>
+      <c r="A37" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Phân tích/Yêu cầu nghiệp vụ.xlsx
+++ b/Phân tích/Yêu cầu nghiệp vụ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\auhai\Documents\GitHub\CNPM\Phân tích\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D136F8E2-051E-4DBC-AD7A-8FEA4D550B8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08500815-95A1-4D24-9F42-84974DE51CF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CA4F4A45-B080-403D-880F-8A1956738ABC}"/>
+    <workbookView xWindow="4680" yWindow="2415" windowWidth="21600" windowHeight="11385" xr2:uid="{CA4F4A45-B080-403D-880F-8A1956738ABC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="112">
   <si>
     <t>STT</t>
   </si>
@@ -343,6 +343,24 @@
   </si>
   <si>
     <t>- Tìm kiếm hóa đơn</t>
+  </si>
+  <si>
+    <t>- Đặt lịch làm việc</t>
+  </si>
+  <si>
+    <t>-Check in</t>
+  </si>
+  <si>
+    <t>BM35</t>
+  </si>
+  <si>
+    <t>BM36</t>
+  </si>
+  <si>
+    <t>QĐ35</t>
+  </si>
+  <si>
+    <t>QĐ36</t>
   </si>
 </sst>
 </file>
@@ -390,7 +408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -402,6 +420,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -718,10 +739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF8C8E8B-6B0E-4DFD-82F0-66B3E2D3D432}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1231,7 +1252,32 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Phân tích/Yêu cầu nghiệp vụ.xlsx
+++ b/Phân tích/Yêu cầu nghiệp vụ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\auhai\Documents\GitHub\CNPM\Phân tích\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\CNPM\CNPM\Phân tích\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08500815-95A1-4D24-9F42-84974DE51CF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7EADBC3-52E9-42DB-B956-5B42922F0AFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="2415" windowWidth="21600" windowHeight="11385" xr2:uid="{CA4F4A45-B080-403D-880F-8A1956738ABC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CA4F4A45-B080-403D-880F-8A1956738ABC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="109">
   <si>
     <t>STT</t>
   </si>
@@ -84,9 +84,6 @@
     <t>- Đăng nhập</t>
   </si>
   <si>
-    <t>- Đăng xuất</t>
-  </si>
-  <si>
     <t>- Thay đổi thông tin tài khoản</t>
   </si>
   <si>
@@ -198,9 +195,6 @@
     <t>BM32</t>
   </si>
   <si>
-    <t>BM33</t>
-  </si>
-  <si>
     <t>BM34</t>
   </si>
   <si>
@@ -298,9 +292,6 @@
   </si>
   <si>
     <t>QĐ32</t>
-  </si>
-  <si>
-    <t>QĐ33</t>
   </si>
   <si>
     <t>QĐ34</t>
@@ -416,13 +407,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -739,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF8C8E8B-6B0E-4DFD-82F0-66B3E2D3D432}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,25 +745,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="A1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -783,10 +774,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -797,10 +788,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -811,10 +802,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -825,10 +816,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -839,10 +830,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -850,13 +841,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -864,13 +855,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -878,13 +869,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -892,13 +883,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -906,13 +897,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -920,13 +911,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -934,13 +925,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -948,13 +939,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -962,13 +953,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -976,13 +967,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -990,13 +981,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1004,13 +995,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1018,13 +1009,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1032,13 +1023,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1049,10 +1040,10 @@
         <v>6</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1063,10 +1054,10 @@
         <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1077,10 +1068,10 @@
         <v>8</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1091,10 +1082,10 @@
         <v>9</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1105,10 +1096,10 @@
         <v>10</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1119,10 +1110,10 @@
         <v>11</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1133,10 +1124,10 @@
         <v>12</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1147,10 +1138,10 @@
         <v>13</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1161,10 +1152,10 @@
         <v>14</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1175,10 +1166,10 @@
         <v>15</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1189,10 +1180,10 @@
         <v>16</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1203,10 +1194,10 @@
         <v>17</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1217,66 +1208,52 @@
         <v>18</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>20</v>
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/Phân tích/Yêu cầu nghiệp vụ.xlsx
+++ b/Phân tích/Yêu cầu nghiệp vụ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\CNPM\CNPM\Phân tích\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\auhai\Documents\GitHub\CNPM\Phân tích\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7EADBC3-52E9-42DB-B956-5B42922F0AFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D7A2B7-6A0D-40E6-9B40-A634778D4E0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CA4F4A45-B080-403D-880F-8A1956738ABC}"/>
+    <workbookView xWindow="17265" yWindow="1920" windowWidth="21600" windowHeight="11385" xr2:uid="{CA4F4A45-B080-403D-880F-8A1956738ABC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="130">
   <si>
     <t>STT</t>
   </si>
@@ -352,13 +352,76 @@
   </si>
   <si>
     <t>QĐ36</t>
+  </si>
+  <si>
+    <t>Bảng trách nhiệm nghiệp vụ</t>
+  </si>
+  <si>
+    <t>Nghiệp vụ</t>
+  </si>
+  <si>
+    <t>Người dùng</t>
+  </si>
+  <si>
+    <t>Phần mềm</t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bấm vào tên nhân viên muốn xem thông tin </t>
+  </si>
+  <si>
+    <t>Hiển thị thông tin nhân viên</t>
+  </si>
+  <si>
+    <t>Cung cấp thông tin nhân viên</t>
+  </si>
+  <si>
+    <t>Kiểm tra qui định và lưu</t>
+  </si>
+  <si>
+    <t>Cung cấp thông tin về giờ làm, ca làm nhân viên</t>
+  </si>
+  <si>
+    <t>Tính, xuất thông tin lương nhân viên</t>
+  </si>
+  <si>
+    <t>Xuất danh sách nhân viên</t>
+  </si>
+  <si>
+    <t>Xuất danh sách khách hàng</t>
+  </si>
+  <si>
+    <t>- Danh mục  đơn đặt hàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Xuất danh sách đơn đặt hàng</t>
+  </si>
+  <si>
+    <t>Xuất danh sách hàng hoá trong kho</t>
+  </si>
+  <si>
+    <t>Xuất danh sách hoá đơn</t>
+  </si>
+  <si>
+    <t>Xuất danh mục khách hàng</t>
+  </si>
+  <si>
+    <t>Xuất thông tin liên quan</t>
+  </si>
+  <si>
+    <t>Nhập khoảng thời gian cần xem</t>
+  </si>
+  <si>
+    <t>Cung cấp khoảng thời gian cần xem</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,6 +440,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
     </font>
   </fonts>
   <fills count="2">
@@ -399,12 +467,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -415,6 +480,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -730,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF8C8E8B-6B0E-4DFD-82F0-66B3E2D3D432}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,17 +822,28 @@
     <col min="2" max="2" width="29.85546875" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="10" max="10" width="29.42578125" customWidth="1"/>
+    <col min="11" max="11" width="44" customWidth="1"/>
+    <col min="12" max="12" width="34.28515625" customWidth="1"/>
+    <col min="13" max="13" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-    </row>
-    <row r="2" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="I1" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+    </row>
+    <row r="2" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -765,12 +856,27 @@
       <c r="D2" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -779,12 +885,25 @@
       <c r="D3" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -793,12 +912,25 @@
       <c r="D4" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="1">
+        <v>2</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -807,12 +939,25 @@
       <c r="D5" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I5" s="1">
+        <v>3</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -821,12 +966,25 @@
       <c r="D6" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="1">
+        <v>4</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -835,12 +993,23 @@
       <c r="D7" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="1">
+        <v>5</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="7" t="s">
         <v>90</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -849,12 +1018,23 @@
       <c r="D8" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="1">
+        <v>6</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="M8" s="9"/>
+    </row>
+    <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="7" t="s">
         <v>91</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -863,12 +1043,23 @@
       <c r="D9" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9" s="1">
+        <v>7</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="M9" s="9"/>
+    </row>
+    <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="7" t="s">
         <v>92</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -877,12 +1068,23 @@
       <c r="D10" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I10" s="1">
+        <v>8</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="M10" s="9"/>
+    </row>
+    <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="7" t="s">
         <v>93</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -891,12 +1093,23 @@
       <c r="D11" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="1">
+        <v>9</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="M11" s="9"/>
+    </row>
+    <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="7" t="s">
         <v>94</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -905,12 +1118,23 @@
       <c r="D12" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="1">
+        <v>10</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="M12" s="9"/>
+    </row>
+    <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="7" t="s">
         <v>92</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -919,12 +1143,23 @@
       <c r="D13" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I13" s="1">
+        <v>11</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="M13" s="9"/>
+    </row>
+    <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="7" t="s">
         <v>95</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -933,12 +1168,25 @@
       <c r="D14" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I14" s="1">
+        <v>12</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="M14" s="9"/>
+    </row>
+    <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="7" t="s">
         <v>96</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -947,12 +1195,25 @@
       <c r="D15" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I15" s="1">
+        <v>13</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="M15" s="9"/>
+    </row>
+    <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="7" t="s">
         <v>97</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -961,12 +1222,25 @@
       <c r="D16" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I16" s="1">
+        <v>14</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="M16" s="9"/>
+    </row>
+    <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="7" t="s">
         <v>98</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -975,12 +1249,21 @@
       <c r="D17" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I17" s="1">
+        <v>15</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+    </row>
+    <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="7" t="s">
         <v>99</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -989,12 +1272,21 @@
       <c r="D18" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I18" s="1">
+        <v>16</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+    </row>
+    <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="7" t="s">
         <v>100</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -1003,12 +1295,21 @@
       <c r="D19" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I19" s="1">
+        <v>17</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+    </row>
+    <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="7" t="s">
         <v>101</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1017,12 +1318,21 @@
       <c r="D20" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I20" s="1">
+        <v>18</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+    </row>
+    <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="7" t="s">
         <v>102</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1031,12 +1341,21 @@
       <c r="D21" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I21" s="1">
+        <v>19</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+    </row>
+    <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -1045,12 +1364,21 @@
       <c r="D22" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I22" s="1">
+        <v>20</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+    </row>
+    <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -1059,12 +1387,21 @@
       <c r="D23" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I23" s="1">
+        <v>21</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+    </row>
+    <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -1073,12 +1410,21 @@
       <c r="D24" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I24" s="1">
+        <v>22</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+    </row>
+    <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -1087,12 +1433,21 @@
       <c r="D25" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I25" s="1">
+        <v>23</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+    </row>
+    <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1101,12 +1456,21 @@
       <c r="D26" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I26" s="1">
+        <v>24</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+    </row>
+    <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -1115,12 +1479,21 @@
       <c r="D27" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I27" s="1">
+        <v>25</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+    </row>
+    <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -1129,12 +1502,21 @@
       <c r="D28" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I28" s="1">
+        <v>26</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+    </row>
+    <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -1143,12 +1525,21 @@
       <c r="D29" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I29" s="1">
+        <v>27</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+    </row>
+    <row r="30" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -1157,12 +1548,21 @@
       <c r="D30" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I30" s="1">
+        <v>28</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+    </row>
+    <row r="31" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -1171,12 +1571,21 @@
       <c r="D31" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I31" s="1">
+        <v>29</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+    </row>
+    <row r="32" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -1185,12 +1594,21 @@
       <c r="D32" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I32" s="1">
+        <v>30</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+    </row>
+    <row r="33" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -1199,12 +1617,21 @@
       <c r="D33" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I33" s="1">
+        <v>31</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+    </row>
+    <row r="34" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -1213,12 +1640,21 @@
       <c r="D34" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I34" s="1">
+        <v>32</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+    </row>
+    <row r="35" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -1227,12 +1663,21 @@
       <c r="D35" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I35" s="1">
+        <v>34</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+    </row>
+    <row r="36" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="8" t="s">
         <v>103</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -1241,24 +1686,43 @@
       <c r="D36" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I36" s="1">
+        <v>35</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+    </row>
+    <row r="37" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>106</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="I37" s="1">
+        <v>36</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="I1:M1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Phân tích/Yêu cầu nghiệp vụ.xlsx
+++ b/Phân tích/Yêu cầu nghiệp vụ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\auhai\Documents\GitHub\CNPM\Phân tích\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D7A2B7-6A0D-40E6-9B40-A634778D4E0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D4F85A-4F34-4F59-9EF1-DF8EB6D3B122}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17265" yWindow="1920" windowWidth="21600" windowHeight="11385" xr2:uid="{CA4F4A45-B080-403D-880F-8A1956738ABC}"/>
+    <workbookView xWindow="15810" yWindow="2160" windowWidth="21600" windowHeight="11385" xr2:uid="{CA4F4A45-B080-403D-880F-8A1956738ABC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="149">
   <si>
     <t>STT</t>
   </si>
@@ -339,9 +339,6 @@
     <t>- Đặt lịch làm việc</t>
   </si>
   <si>
-    <t>-Check in</t>
-  </si>
-  <si>
     <t>BM35</t>
   </si>
   <si>
@@ -411,10 +408,70 @@
     <t>Xuất thông tin liên quan</t>
   </si>
   <si>
-    <t>Nhập khoảng thời gian cần xem</t>
-  </si>
-  <si>
     <t>Cung cấp khoảng thời gian cần xem</t>
+  </si>
+  <si>
+    <t>Cung cấp thông tin về sản phẩm</t>
+  </si>
+  <si>
+    <t>Cung cấp thông tin về khách hàng</t>
+  </si>
+  <si>
+    <t>Cung cấp thông tin về đơn hàng</t>
+  </si>
+  <si>
+    <t>Cung cấp thông tin về nhân viên</t>
+  </si>
+  <si>
+    <t>Tìm, xuất thông tin liên quan</t>
+  </si>
+  <si>
+    <t>Cung cấp thông tin về hoá đơn</t>
+  </si>
+  <si>
+    <t>Cung cấp thông tin về hàng hoá</t>
+  </si>
+  <si>
+    <t>Xuất thông tin chi tiết về hàng hoá</t>
+  </si>
+  <si>
+    <t>Kiểm tra qui định, tạo và lưu đơn hàng</t>
+  </si>
+  <si>
+    <t>Cung cấp thông tin về sản phẩm cần đặt hàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xuất thông tin liên quan </t>
+  </si>
+  <si>
+    <t>Cung cấp thông tin sản phẩm cần bán</t>
+  </si>
+  <si>
+    <t>Kiểm tra qui định, tạo và lưu hoá đơn</t>
+  </si>
+  <si>
+    <t>Cung cấp thông tin cần cập nhật</t>
+  </si>
+  <si>
+    <t>Cung cấp thông tin khách hàng</t>
+  </si>
+  <si>
+    <t>Cung cấp tên tài khoản và mật khẩu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểm tra qui định và ghi nhận </t>
+  </si>
+  <si>
+    <t>Cung cấp thông tin về thời gian, ca làm việc</t>
+  </si>
+  <si>
+    <t>Cung cấp thông tin giờ vào và ra</t>
+  </si>
+  <si>
+    <t>- Check in/out</t>
+  </si>
+  <si>
+    <t>-Check in/out</t>
   </si>
 </sst>
 </file>
@@ -475,18 +532,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -495,6 +540,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -812,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF8C8E8B-6B0E-4DFD-82F0-66B3E2D3D432}">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D37" sqref="A1:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,24 +881,24 @@
     <col min="4" max="4" width="14.85546875" customWidth="1"/>
     <col min="10" max="10" width="29.42578125" customWidth="1"/>
     <col min="11" max="11" width="44" customWidth="1"/>
-    <col min="12" max="12" width="34.28515625" customWidth="1"/>
+    <col min="12" max="12" width="35.7109375" customWidth="1"/>
     <col min="13" max="13" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="I1" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="I1" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
     </row>
     <row r="2" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -860,23 +917,23 @@
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -888,22 +945,22 @@
       <c r="I3" s="1">
         <v>1</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="L3" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="M3" s="9"/>
+      <c r="M3" s="5"/>
     </row>
     <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -915,22 +972,22 @@
       <c r="I4" s="1">
         <v>2</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="L4" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="M4" s="9"/>
+      <c r="M4" s="5"/>
     </row>
     <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -942,22 +999,22 @@
       <c r="I5" s="1">
         <v>3</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="L5" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="M5" s="9"/>
+      <c r="M5" s="5"/>
     </row>
     <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -969,22 +1026,22 @@
       <c r="I6" s="1">
         <v>4</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="L6" s="9" t="s">
+      <c r="K6" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="M6" s="9"/>
+      <c r="L6" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="M6" s="5"/>
     </row>
     <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -996,20 +1053,20 @@
       <c r="I7" s="1">
         <v>5</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="M7" s="9"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="M7" s="5"/>
     </row>
     <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>90</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1021,20 +1078,20 @@
       <c r="I8" s="1">
         <v>6</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="M8" s="9"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="3" t="s">
         <v>91</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1046,20 +1103,20 @@
       <c r="I9" s="1">
         <v>7</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="M9" s="9"/>
+      <c r="M9" s="5"/>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1071,20 +1128,20 @@
       <c r="I10" s="1">
         <v>8</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="M10" s="9"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="3" t="s">
         <v>93</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1096,20 +1153,20 @@
       <c r="I11" s="1">
         <v>9</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="M11" s="9"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1121,20 +1178,20 @@
       <c r="I12" s="1">
         <v>10</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="M12" s="9"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1146,20 +1203,20 @@
       <c r="I13" s="1">
         <v>11</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="J13" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="M13" s="9"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="M13" s="5"/>
     </row>
     <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="3" t="s">
         <v>95</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1171,22 +1228,22 @@
       <c r="I14" s="1">
         <v>12</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="K14" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="L14" s="9" t="s">
+      <c r="K14" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="M14" s="9"/>
+      <c r="L14" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="M14" s="5"/>
     </row>
     <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="3" t="s">
         <v>96</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1198,22 +1255,22 @@
       <c r="I15" s="1">
         <v>13</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="K15" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="L15" s="9" t="s">
+      <c r="K15" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="M15" s="9"/>
+      <c r="L15" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="M15" s="5"/>
     </row>
     <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1225,22 +1282,22 @@
       <c r="I16" s="1">
         <v>14</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="J16" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="K16" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="L16" s="9" t="s">
+      <c r="K16" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="M16" s="9"/>
+      <c r="L16" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="M16" s="5"/>
     </row>
     <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="3" t="s">
         <v>98</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1252,18 +1309,22 @@
       <c r="I17" s="1">
         <v>15</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="J17" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
+      <c r="K17" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1275,18 +1336,22 @@
       <c r="I18" s="1">
         <v>16</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="J18" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
+      <c r="K18" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="M18" s="5"/>
     </row>
     <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="3" t="s">
         <v>100</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -1298,18 +1363,22 @@
       <c r="I19" s="1">
         <v>17</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="J19" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
+      <c r="K19" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="M19" s="5"/>
     </row>
     <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="3" t="s">
         <v>101</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1321,18 +1390,22 @@
       <c r="I20" s="1">
         <v>18</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="J20" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
+      <c r="K20" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="M20" s="5"/>
     </row>
     <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="3" t="s">
         <v>102</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1344,18 +1417,22 @@
       <c r="I21" s="1">
         <v>19</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="J21" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
+      <c r="K21" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="M21" s="5"/>
     </row>
     <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -1367,18 +1444,22 @@
       <c r="I22" s="1">
         <v>20</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="J22" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
+      <c r="K22" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="M22" s="5"/>
     </row>
     <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -1390,18 +1471,20 @@
       <c r="I23" s="1">
         <v>21</v>
       </c>
-      <c r="J23" s="7" t="s">
+      <c r="J23" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="M23" s="5"/>
     </row>
     <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -1413,18 +1496,22 @@
       <c r="I24" s="1">
         <v>22</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="J24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
+      <c r="K24" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="M24" s="5"/>
     </row>
     <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -1436,18 +1523,22 @@
       <c r="I25" s="1">
         <v>23</v>
       </c>
-      <c r="J25" s="7" t="s">
+      <c r="J25" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
+      <c r="K25" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="M25" s="5"/>
     </row>
     <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1459,18 +1550,20 @@
       <c r="I26" s="1">
         <v>24</v>
       </c>
-      <c r="J26" s="7" t="s">
+      <c r="J26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="M26" s="5"/>
     </row>
     <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -1482,18 +1575,22 @@
       <c r="I27" s="1">
         <v>25</v>
       </c>
-      <c r="J27" s="7" t="s">
+      <c r="J27" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
+      <c r="K27" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="M27" s="5"/>
     </row>
     <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -1505,18 +1602,20 @@
       <c r="I28" s="1">
         <v>26</v>
       </c>
-      <c r="J28" s="7" t="s">
+      <c r="J28" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="M28" s="5"/>
     </row>
     <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -1528,18 +1627,22 @@
       <c r="I29" s="1">
         <v>27</v>
       </c>
-      <c r="J29" s="7" t="s">
+      <c r="J29" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
+      <c r="K29" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="M29" s="5"/>
     </row>
     <row r="30" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -1551,18 +1654,20 @@
       <c r="I30" s="1">
         <v>28</v>
       </c>
-      <c r="J30" s="7" t="s">
+      <c r="J30" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="M30" s="5"/>
     </row>
     <row r="31" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -1574,18 +1679,22 @@
       <c r="I31" s="1">
         <v>29</v>
       </c>
-      <c r="J31" s="7" t="s">
+      <c r="J31" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
+      <c r="K31" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="M31" s="5"/>
     </row>
     <row r="32" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -1597,18 +1706,22 @@
       <c r="I32" s="1">
         <v>30</v>
       </c>
-      <c r="J32" s="7" t="s">
+      <c r="J32" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
+      <c r="K32" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="M32" s="5"/>
     </row>
     <row r="33" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -1620,18 +1733,22 @@
       <c r="I33" s="1">
         <v>31</v>
       </c>
-      <c r="J33" s="7" t="s">
+      <c r="J33" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
+      <c r="K33" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="M33" s="5"/>
     </row>
     <row r="34" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -1643,18 +1760,22 @@
       <c r="I34" s="1">
         <v>32</v>
       </c>
-      <c r="J34" s="7" t="s">
+      <c r="J34" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
+      <c r="K34" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="M34" s="5"/>
     </row>
     <row r="35" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -1666,58 +1787,70 @@
       <c r="I35" s="1">
         <v>34</v>
       </c>
-      <c r="J35" s="7" t="s">
+      <c r="J35" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
+      <c r="K35" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="M35" s="5"/>
     </row>
     <row r="36" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I36" s="1">
         <v>35</v>
       </c>
-      <c r="J36" s="8" t="s">
+      <c r="J36" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
+      <c r="K36" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="M36" s="5"/>
     </row>
     <row r="37" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="8" t="s">
-        <v>104</v>
+      <c r="B37" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I37" s="1">
         <v>36</v>
       </c>
-      <c r="J37" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
+      <c r="J37" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="M37" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Phân tích/Yêu cầu nghiệp vụ.xlsx
+++ b/Phân tích/Yêu cầu nghiệp vụ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\auhai\Documents\GitHub\CNPM\Phân tích\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D4F85A-4F34-4F59-9EF1-DF8EB6D3B122}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07E190F-1ED5-43A0-8265-E57C585285B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15810" yWindow="2160" windowWidth="21600" windowHeight="11385" xr2:uid="{CA4F4A45-B080-403D-880F-8A1956738ABC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CA4F4A45-B080-403D-880F-8A1956738ABC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="148">
   <si>
     <t>STT</t>
   </si>
@@ -298,9 +298,6 @@
   </si>
   <si>
     <t>- Danh mục nhân viên</t>
-  </si>
-  <si>
-    <t>-Danh mục  đơn đặt hàng</t>
   </si>
   <si>
     <t>- Danh mục  khách hàng</t>
@@ -870,7 +867,7 @@
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D37" sqref="A1:D37"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,7 +890,7 @@
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="I1" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
@@ -917,16 +914,16 @@
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -949,10 +946,10 @@
         <v>1</v>
       </c>
       <c r="K3" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>115</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>116</v>
       </c>
       <c r="M3" s="5"/>
     </row>
@@ -976,10 +973,10 @@
         <v>2</v>
       </c>
       <c r="K4" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>114</v>
       </c>
       <c r="M4" s="5"/>
     </row>
@@ -1003,10 +1000,10 @@
         <v>3</v>
       </c>
       <c r="K5" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>115</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>116</v>
       </c>
       <c r="M5" s="5"/>
     </row>
@@ -1030,10 +1027,10 @@
         <v>4</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M6" s="5"/>
     </row>
@@ -1058,7 +1055,7 @@
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M7" s="5"/>
     </row>
@@ -1083,7 +1080,7 @@
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M8" s="5"/>
     </row>
@@ -1092,7 +1089,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>30</v>
@@ -1104,11 +1101,11 @@
         <v>7</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M9" s="5"/>
     </row>
@@ -1117,7 +1114,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>31</v>
@@ -1129,11 +1126,11 @@
         <v>8</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M10" s="5"/>
     </row>
@@ -1142,7 +1139,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -1154,11 +1151,11 @@
         <v>9</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M11" s="5"/>
     </row>
@@ -1167,7 +1164,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>33</v>
@@ -1179,11 +1176,11 @@
         <v>10</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M12" s="5"/>
     </row>
@@ -1192,7 +1189,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>34</v>
@@ -1204,11 +1201,11 @@
         <v>11</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M13" s="5"/>
     </row>
@@ -1217,7 +1214,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>35</v>
@@ -1229,13 +1226,13 @@
         <v>12</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M14" s="5"/>
     </row>
@@ -1244,7 +1241,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>36</v>
@@ -1256,13 +1253,13 @@
         <v>13</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M15" s="5"/>
     </row>
@@ -1271,7 +1268,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>37</v>
@@ -1283,13 +1280,13 @@
         <v>14</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M16" s="5"/>
     </row>
@@ -1298,7 +1295,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>38</v>
@@ -1310,13 +1307,13 @@
         <v>15</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M17" s="5"/>
     </row>
@@ -1325,7 +1322,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>39</v>
@@ -1337,13 +1334,13 @@
         <v>16</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M18" s="5"/>
     </row>
@@ -1352,7 +1349,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>40</v>
@@ -1364,13 +1361,13 @@
         <v>17</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M19" s="5"/>
     </row>
@@ -1379,7 +1376,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>41</v>
@@ -1391,13 +1388,13 @@
         <v>18</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K20" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="L20" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="M20" s="5"/>
     </row>
@@ -1406,7 +1403,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>42</v>
@@ -1418,13 +1415,13 @@
         <v>19</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M21" s="5"/>
     </row>
@@ -1448,10 +1445,10 @@
         <v>6</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M22" s="5"/>
     </row>
@@ -1476,7 +1473,7 @@
       </c>
       <c r="K23" s="5"/>
       <c r="L23" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M23" s="5"/>
     </row>
@@ -1500,10 +1497,10 @@
         <v>8</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M24" s="5"/>
     </row>
@@ -1527,10 +1524,10 @@
         <v>9</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M25" s="5"/>
     </row>
@@ -1555,7 +1552,7 @@
       </c>
       <c r="K26" s="5"/>
       <c r="L26" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M26" s="5"/>
     </row>
@@ -1579,10 +1576,10 @@
         <v>11</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M27" s="5"/>
     </row>
@@ -1607,7 +1604,7 @@
       </c>
       <c r="K28" s="5"/>
       <c r="L28" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M28" s="5"/>
     </row>
@@ -1631,10 +1628,10 @@
         <v>13</v>
       </c>
       <c r="K29" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L29" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="L29" s="5" t="s">
-        <v>140</v>
       </c>
       <c r="M29" s="5"/>
     </row>
@@ -1659,7 +1656,7 @@
       </c>
       <c r="K30" s="5"/>
       <c r="L30" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M30" s="5"/>
     </row>
@@ -1683,10 +1680,10 @@
         <v>15</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M31" s="5"/>
     </row>
@@ -1710,10 +1707,10 @@
         <v>16</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M32" s="5"/>
     </row>
@@ -1737,10 +1734,10 @@
         <v>17</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M33" s="5"/>
     </row>
@@ -1764,10 +1761,10 @@
         <v>18</v>
       </c>
       <c r="K34" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="L34" s="5" t="s">
         <v>143</v>
-      </c>
-      <c r="L34" s="5" t="s">
-        <v>144</v>
       </c>
       <c r="M34" s="5"/>
     </row>
@@ -1791,10 +1788,10 @@
         <v>19</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M35" s="5"/>
     </row>
@@ -1803,25 +1800,25 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="D36" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I36" s="1">
         <v>35</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M36" s="5"/>
     </row>
@@ -1830,25 +1827,25 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I37" s="1">
         <v>36</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M37" s="5"/>
     </row>

--- a/Phân tích/Yêu cầu nghiệp vụ.xlsx
+++ b/Phân tích/Yêu cầu nghiệp vụ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\auhai\Documents\GitHub\CNPM\Phân tích\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CNPM\Phân tích\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07E190F-1ED5-43A0-8265-E57C585285B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB4DEF9-AB9A-4232-8687-CC4B6E8850E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CA4F4A45-B080-403D-880F-8A1956738ABC}"/>
+    <workbookView xWindow="0" yWindow="2160" windowWidth="21600" windowHeight="11385" xr2:uid="{CA4F4A45-B080-403D-880F-8A1956738ABC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="143">
   <si>
     <t>STT</t>
   </si>
@@ -39,9 +39,6 @@
     <t>- Cập nhật thông tin nhân viên</t>
   </si>
   <si>
-    <t>- Chấm công</t>
-  </si>
-  <si>
     <t>- Tính lương</t>
   </si>
   <si>
@@ -336,18 +333,6 @@
     <t>- Đặt lịch làm việc</t>
   </si>
   <si>
-    <t>BM35</t>
-  </si>
-  <si>
-    <t>BM36</t>
-  </si>
-  <si>
-    <t>QĐ35</t>
-  </si>
-  <si>
-    <t>QĐ36</t>
-  </si>
-  <si>
     <t>Bảng trách nhiệm nghiệp vụ</t>
   </si>
   <si>
@@ -375,9 +360,6 @@
     <t>Kiểm tra qui định và lưu</t>
   </si>
   <si>
-    <t>Cung cấp thông tin về giờ làm, ca làm nhân viên</t>
-  </si>
-  <si>
     <t>Tính, xuất thông tin lương nhân viên</t>
   </si>
   <si>
@@ -468,7 +450,10 @@
     <t>- Check in/out</t>
   </si>
   <si>
-    <t>-Check in/out</t>
+    <t>BM33</t>
+  </si>
+  <si>
+    <t>QĐ33</t>
   </si>
 </sst>
 </file>
@@ -521,13 +506,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -866,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF8C8E8B-6B0E-4DFD-82F0-66B3E2D3D432}">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,971 +865,947 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="I1" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
+      <c r="A1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="I1" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
     </row>
     <row r="2" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="M3" s="5"/>
+      <c r="K3" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I4" s="1">
         <v>2</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="M4" s="5"/>
+      <c r="K4" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I5" s="1">
         <v>3</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="M5" s="5"/>
+      <c r="K5" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I6" s="1">
         <v>4</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="M6" s="5"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>5</v>
+      <c r="B7" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I7" s="1">
         <v>5</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="M7" s="5"/>
+      <c r="J7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>90</v>
+      <c r="B8" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I8" s="1">
         <v>6</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="M8" s="5"/>
+      <c r="J8" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="M8" s="4"/>
     </row>
     <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>120</v>
+      <c r="B9" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I9" s="1">
         <v>7</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="M9" s="5"/>
+      <c r="J9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M9" s="4"/>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I10" s="1">
         <v>8</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="M10" s="5"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="M10" s="4"/>
     </row>
     <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I11" s="1">
         <v>9</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="M11" s="5"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>93</v>
+      <c r="B12" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I12" s="1">
         <v>10</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="M12" s="5"/>
+      <c r="J12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="M12" s="4"/>
     </row>
     <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>91</v>
+      <c r="B13" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I13" s="1">
         <v>11</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="M13" s="5"/>
+      <c r="J13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I14" s="1">
         <v>12</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="K14" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="M14" s="5"/>
+      <c r="K14" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="M14" s="4"/>
     </row>
     <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I15" s="1">
         <v>13</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="K15" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="M15" s="5"/>
+      <c r="K15" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="M15" s="4"/>
     </row>
     <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I16" s="1">
         <v>14</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="J16" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="K16" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="L16" s="5" t="s">
+      <c r="K16" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="L16" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="M16" s="5"/>
+      <c r="M16" s="4"/>
     </row>
     <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I17" s="1">
         <v>15</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="K17" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="M17" s="5"/>
+      <c r="K17" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="M17" s="4"/>
     </row>
     <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I18" s="1">
         <v>16</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J18" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="K18" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="M18" s="5"/>
+      <c r="K18" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I19" s="1">
         <v>17</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="J19" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="K19" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="M19" s="5"/>
+      <c r="K19" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I20" s="1">
         <v>18</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="J20" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="K20" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="M20" s="5"/>
+      <c r="K20" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="M20" s="4"/>
     </row>
     <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>101</v>
+      <c r="B21" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I21" s="1">
         <v>19</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="M21" s="5"/>
+      <c r="J21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="M21" s="4"/>
     </row>
     <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I22" s="1">
         <v>20</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="J22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K22" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="M22" s="5"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="M22" s="4"/>
     </row>
     <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I23" s="1">
         <v>21</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="J23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="M23" s="5"/>
+      <c r="K23" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="M23" s="4"/>
     </row>
     <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I24" s="1">
         <v>22</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="J24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K24" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="M24" s="5"/>
+      <c r="K24" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="M24" s="4"/>
     </row>
     <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I25" s="1">
         <v>23</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="J25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K25" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="M25" s="5"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="M25" s="4"/>
     </row>
     <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I26" s="1">
         <v>24</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="J26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="M26" s="5"/>
+      <c r="K26" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="M26" s="4"/>
     </row>
     <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I27" s="1">
         <v>25</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="J27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K27" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="L27" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="M27" s="5"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="M27" s="4"/>
     </row>
     <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I28" s="1">
         <v>26</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="J28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="M28" s="5"/>
+      <c r="K28" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="M28" s="4"/>
     </row>
     <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I29" s="1">
         <v>27</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="J29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K29" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="L29" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="M29" s="5"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="M29" s="4"/>
     </row>
     <row r="30" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I30" s="1">
         <v>28</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="J30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="M30" s="5"/>
+      <c r="K30" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="M30" s="4"/>
     </row>
     <row r="31" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I31" s="1">
         <v>29</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="J31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K31" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="L31" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="M31" s="5"/>
+      <c r="K31" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="M31" s="4"/>
     </row>
     <row r="32" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I32" s="1">
         <v>30</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="J32" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K32" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="L32" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="M32" s="5"/>
+      <c r="K32" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="M32" s="4"/>
     </row>
     <row r="33" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I33" s="1">
         <v>31</v>
       </c>
-      <c r="J33" s="3" t="s">
+      <c r="J33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K33" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="L33" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="M33" s="5"/>
+      <c r="K33" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="M33" s="4"/>
     </row>
     <row r="34" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I34" s="1">
         <v>32</v>
       </c>
-      <c r="J34" s="3" t="s">
+      <c r="J34" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K34" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="L34" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="M34" s="5"/>
+      <c r="K34" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="M34" s="4"/>
     </row>
     <row r="35" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>56</v>
+        <v>141</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="I35" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K35" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="L35" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="M35" s="5"/>
+        <v>101</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="M35" s="4"/>
     </row>
     <row r="36" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>102</v>
+        <v>34</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="I36" s="1">
-        <v>35</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="K36" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="L36" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="M36" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="M36" s="4"/>
     </row>
     <row r="37" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I37" s="1">
-        <v>36</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="K37" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="L37" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="M37" s="5"/>
+      <c r="M37" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Phân tích/Yêu cầu nghiệp vụ.xlsx
+++ b/Phân tích/Yêu cầu nghiệp vụ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CNPM\Phân tích\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\CNPM\Phân tích\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB4DEF9-AB9A-4232-8687-CC4B6E8850E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9D7E12-5F6D-4F7C-9BCB-3711F75330D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2160" windowWidth="21600" windowHeight="11385" xr2:uid="{CA4F4A45-B080-403D-880F-8A1956738ABC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CA4F4A45-B080-403D-880F-8A1956738ABC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="148">
   <si>
     <t>STT</t>
   </si>
@@ -454,6 +454,21 @@
   </si>
   <si>
     <t>QĐ33</t>
+  </si>
+  <si>
+    <t>Danh mục tài khoản</t>
+  </si>
+  <si>
+    <t>BM35</t>
+  </si>
+  <si>
+    <t>QD35</t>
+  </si>
+  <si>
+    <t>Cung cấp tài khoản cho nhân viên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xuất danh mục tài khoản và lưu </t>
   </si>
 </sst>
 </file>
@@ -848,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF8C8E8B-6B0E-4DFD-82F0-66B3E2D3D432}">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1805,6 +1820,30 @@
       <c r="M36" s="4"/>
     </row>
     <row r="37" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I37" s="1">
+        <v>35</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="M37" s="4"/>
     </row>
   </sheetData>
